--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H2">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I2">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J2">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.266076</v>
+        <v>5.256051666666667</v>
       </c>
       <c r="N2">
-        <v>27.798228</v>
+        <v>15.768155</v>
       </c>
       <c r="O2">
-        <v>0.5506394579555814</v>
+        <v>0.2751978571638378</v>
       </c>
       <c r="P2">
-        <v>0.5506394579555816</v>
+        <v>0.2751978571638379</v>
       </c>
       <c r="Q2">
-        <v>194.394633055992</v>
+        <v>103.8084290385133</v>
       </c>
       <c r="R2">
-        <v>1749.551697503928</v>
+        <v>934.27586134662</v>
       </c>
       <c r="S2">
-        <v>0.1350108623669571</v>
+        <v>0.05886175368860326</v>
       </c>
       <c r="T2">
-        <v>0.1350108623669571</v>
+        <v>0.05886175368860327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H3">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I3">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J3">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.544999</v>
       </c>
       <c r="O3">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="P3">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="Q3">
-        <v>45.76956052583044</v>
+        <v>43.08849476991066</v>
       </c>
       <c r="R3">
-        <v>411.926044732474</v>
+        <v>387.7964529291959</v>
       </c>
       <c r="S3">
-        <v>0.03178785205952236</v>
+        <v>0.02443216210331232</v>
       </c>
       <c r="T3">
-        <v>0.03178785205952236</v>
+        <v>0.02443216210331232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H4">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I4">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J4">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.380103666666666</v>
+        <v>11.66145566666667</v>
       </c>
       <c r="N4">
-        <v>16.140311</v>
+        <v>34.98436700000001</v>
       </c>
       <c r="O4">
-        <v>0.319714339355534</v>
+        <v>0.6105738326794278</v>
       </c>
       <c r="P4">
-        <v>0.3197143393555341</v>
+        <v>0.6105738326794279</v>
       </c>
       <c r="Q4">
-        <v>112.8701381345095</v>
+        <v>230.3168746867854</v>
       </c>
       <c r="R4">
-        <v>1015.831243210586</v>
+        <v>2072.851872181068</v>
       </c>
       <c r="S4">
-        <v>0.07839051132974677</v>
+        <v>0.1305949360153867</v>
       </c>
       <c r="T4">
-        <v>0.07839051132974678</v>
+        <v>0.1305949360153868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>177.158558</v>
       </c>
       <c r="I5">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J5">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.266076</v>
+        <v>5.256051666666667</v>
       </c>
       <c r="N5">
-        <v>27.798228</v>
+        <v>15.768155</v>
       </c>
       <c r="O5">
-        <v>0.5506394579555814</v>
+        <v>0.2751978571638378</v>
       </c>
       <c r="P5">
-        <v>0.5506394579555816</v>
+        <v>0.2751978571638379</v>
       </c>
       <c r="Q5">
-        <v>547.188220826136</v>
+        <v>310.3848446800545</v>
       </c>
       <c r="R5">
-        <v>4924.693987435225</v>
+        <v>2793.46360212049</v>
       </c>
       <c r="S5">
-        <v>0.3800328867592697</v>
+        <v>0.1759953064067137</v>
       </c>
       <c r="T5">
-        <v>0.3800328867592697</v>
+        <v>0.1759953064067137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>177.158558</v>
       </c>
       <c r="I6">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J6">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.544999</v>
       </c>
       <c r="O6">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="P6">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="Q6">
         <v>128.8336205501602</v>
@@ -818,10 +818,10 @@
         <v>1159.502584951442</v>
       </c>
       <c r="S6">
-        <v>0.08947746107437254</v>
+        <v>0.07305160968018354</v>
       </c>
       <c r="T6">
-        <v>0.08947746107437254</v>
+        <v>0.07305160968018354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>177.158558</v>
       </c>
       <c r="I7">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J7">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.380103666666666</v>
+        <v>11.66145566666667</v>
       </c>
       <c r="N7">
-        <v>16.140311</v>
+        <v>34.98436700000001</v>
       </c>
       <c r="O7">
-        <v>0.319714339355534</v>
+        <v>0.6105738326794278</v>
       </c>
       <c r="P7">
-        <v>0.3197143393555341</v>
+        <v>0.6105738326794279</v>
       </c>
       <c r="Q7">
-        <v>317.7104691590598</v>
+        <v>688.6422233625319</v>
       </c>
       <c r="R7">
-        <v>2859.394222431537</v>
+        <v>6197.780010262787</v>
       </c>
       <c r="S7">
-        <v>0.2206561145740079</v>
+        <v>0.390475892050143</v>
       </c>
       <c r="T7">
-        <v>0.2206561145740079</v>
+        <v>0.390475892050143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H8">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I8">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J8">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.266076</v>
+        <v>5.256051666666667</v>
       </c>
       <c r="N8">
-        <v>27.798228</v>
+        <v>15.768155</v>
       </c>
       <c r="O8">
-        <v>0.5506394579555814</v>
+        <v>0.2751978571638378</v>
       </c>
       <c r="P8">
-        <v>0.5506394579555816</v>
+        <v>0.2751978571638379</v>
       </c>
       <c r="Q8">
-        <v>51.252281741916</v>
+        <v>71.14492021421779</v>
       </c>
       <c r="R8">
-        <v>461.2705356772441</v>
+        <v>640.3042819279601</v>
       </c>
       <c r="S8">
-        <v>0.03559570882935464</v>
+        <v>0.0403407970685209</v>
       </c>
       <c r="T8">
-        <v>0.03559570882935465</v>
+        <v>0.04034079706852091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H9">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I9">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J9">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.544999</v>
       </c>
       <c r="O9">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="P9">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="Q9">
-        <v>12.06717682683078</v>
+        <v>29.53062242584089</v>
       </c>
       <c r="R9">
-        <v>108.604591441477</v>
+        <v>265.775601832568</v>
       </c>
       <c r="S9">
-        <v>0.008380889554989524</v>
+        <v>0.01674453837323848</v>
       </c>
       <c r="T9">
-        <v>0.008380889554989524</v>
+        <v>0.01674453837323848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H10">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I10">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J10">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.380103666666666</v>
+        <v>11.66145566666667</v>
       </c>
       <c r="N10">
-        <v>16.140311</v>
+        <v>34.98436700000001</v>
       </c>
       <c r="O10">
-        <v>0.319714339355534</v>
+        <v>0.6105738326794278</v>
       </c>
       <c r="P10">
-        <v>0.3197143393555341</v>
+        <v>0.6105738326794279</v>
       </c>
       <c r="Q10">
-        <v>29.75829131173922</v>
+        <v>157.8472560017271</v>
       </c>
       <c r="R10">
-        <v>267.824621805653</v>
+        <v>1420.625304015544</v>
       </c>
       <c r="S10">
-        <v>0.02066771345177936</v>
+        <v>0.08950300461389804</v>
       </c>
       <c r="T10">
-        <v>0.02066771345177937</v>
+        <v>0.08950300461389805</v>
       </c>
     </row>
   </sheetData>
